--- a/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="60" windowWidth="14550" windowHeight="8445"/>
+    <workbookView xWindow="20325" yWindow="-15" windowWidth="10215" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="MainChecks" sheetId="2" r:id="rId1"/>
@@ -16,11 +16,11 @@
     <definedName name="AllTriggers">MainChecks!$I$5:$I$5</definedName>
     <definedName name="Currency">MainChecks!$B$1</definedName>
     <definedName name="EvaluationDate">MainChecks!$C$3</definedName>
-    <definedName name="FirstIndex">MainChecks!$B$10</definedName>
+    <definedName name="FirstIndex">MainChecks!$B$11</definedName>
     <definedName name="InterestRatesTrigger">MainChecks!$I$5</definedName>
-    <definedName name="SecondIMMDate">MainChecks!$C$11</definedName>
+    <definedName name="SecondIMMDate">MainChecks!$C$12</definedName>
     <definedName name="Trigger">MainChecks!$I$2</definedName>
-    <definedName name="Yesterday">MainChecks!$C$8</definedName>
+    <definedName name="Yesterday">MainChecks!$C$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -561,6 +561,30 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -578,7 +602,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -667,9 +691,6 @@
     <xf numFmtId="167" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -693,6 +714,18 @@
     </xf>
     <xf numFmtId="4" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -788,9 +821,9 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 15:02:18</v>
+        <v>Updated at 18:28:49</v>
         <stp/>
-        <stp>{02CCA5F9-6041-493D-923A-5CD6D4D04C51}</stp>
+        <stp>{346E5213-D98C-4DA8-99C2-EAACB8469A7B}</stp>
         <tr r="I3" s="2"/>
       </tp>
     </main>
@@ -932,7 +965,7 @@
       <sheetData sheetId="0">
         <row r="27">
           <cell r="D27">
-            <v>27</v>
+            <v>42</v>
           </cell>
         </row>
       </sheetData>
@@ -1368,7 +1401,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1454,7 @@
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="9"/>
@@ -1436,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="40">
-        <v>41768.625150462962</v>
+        <v>41771.761736111112</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="5"/>
@@ -1459,26 +1492,26 @@
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>GBPSTD</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f>_xll.qlSettingsEvaluationDate(ISERROR(Trigger))</f>
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="E3" s="18" t="e">
+      <c r="E3" s="18">
         <f>_xll.qlYieldTSDiscount(B3,C3,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="F3" s="19" t="str">
-        <f ca="1">IF(ISERROR(C3),_xll.ohRangeRetrieveError(C3),_xll.ohRangeRetrieveError(E3))</f>
-        <v>qlYieldTSDiscount - empty Handle cannot be dereferenced</v>
+        <f>IF(ISERROR(C3),_xll.ohRangeRetrieveError(C3),_xll.ohRangeRetrieveError(E3))</f>
+        <v/>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="46" t="str">
+      <c r="I3" s="45" t="str">
         <f>_xll.RData(H4,"LAST",,"FRQ:1S",,I4)</f>
-        <v>Paused at 15:02:18</v>
+        <v>Updated at 18:28:49</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="5"/>
@@ -1503,7 +1536,7 @@
       </c>
       <c r="C4" s="41">
         <f>EvaluationDate</f>
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18">
@@ -1515,11 +1548,11 @@
         <v/>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="45">
-        <v>124.9375</v>
+      <c r="I4" s="44">
+        <v>124.78125</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="5"/>
@@ -1544,16 +1577,16 @@
       </c>
       <c r="C5" s="41">
         <f>EvaluationDate</f>
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="18" t="e">
+      <c r="E5" s="18">
         <f>_xll.qlYieldTSDiscount(B5,C5,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="F5" s="19" t="str">
-        <f ca="1">IF(ISERROR(C5),_xll.ohRangeRetrieveError(C5),_xll.ohRangeRetrieveError(E5))</f>
-        <v>qlYieldTSDiscount - empty Handle cannot be dereferenced</v>
+        <f>IF(ISERROR(C5),_xll.ohRangeRetrieveError(C5),_xll.ohRangeRetrieveError(E5))</f>
+        <v/>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="20" t="s">
@@ -1561,7 +1594,7 @@
       </c>
       <c r="I5" s="21">
         <f>[1]!TriggerCounter</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="5"/>
@@ -1586,16 +1619,16 @@
       </c>
       <c r="C6" s="41">
         <f>EvaluationDate</f>
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="E6" s="18" t="e">
+      <c r="E6" s="18">
         <f>_xll.qlYieldTSDiscount(B6,C6,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f ca="1">IF(ISERROR(C6),_xll.ohRangeRetrieveError(C6),_xll.ohRangeRetrieveError(E6))</f>
-        <v>qlYieldTSDiscount - empty Handle cannot be dereferenced</v>
+        <f>IF(ISERROR(C6),_xll.ohRangeRetrieveError(C6),_xll.ohRangeRetrieveError(E6))</f>
+        <v/>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="20" t="s">
@@ -1603,7 +1636,7 @@
       </c>
       <c r="I6" s="21">
         <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>862</v>
+        <v>1383</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="5"/>
@@ -1628,16 +1661,16 @@
       </c>
       <c r="C7" s="41">
         <f>EvaluationDate</f>
-        <v>41768</v>
+        <v>41771</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="18" t="e">
+      <c r="E7" s="18">
         <f>_xll.qlYieldTSDiscount(B7,C7,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19" t="str">
-        <f ca="1">IF(ISERROR(C7),_xll.ohRangeRetrieveError(C7),_xll.ohRangeRetrieveError(E7))</f>
-        <v>qlYieldTSDiscount - empty Handle cannot be dereferenced</v>
+        <f>IF(ISERROR(C7),_xll.ohRangeRetrieveError(C7),_xll.ohRangeRetrieveError(E7))</f>
+        <v/>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="34" t="s">
@@ -1661,21 +1694,24 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="42">
-        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-2D","Preceding")</f>
-        <v>41766</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26" t="e">
-        <f>_xll.qlIndexFixing(FirstIndex,C8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f ca="1">IF(ISERROR(C8),_xll.ohRangeRetrieveError(C8),_xll.ohRangeRetrieveError(E8))</f>
-        <v>qlIndexFixing - Missing GBPLibor3M Actual/365 (Fixed) fixing for May 7th, 2014</v>
+      <c r="B8" s="27" t="str">
+        <f>UPPER(Currency)&amp;"1Y"</f>
+        <v>GBP1Y</v>
+      </c>
+      <c r="C8" s="55">
+        <f>EvaluationDate</f>
+        <v>41771</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="18">
+        <f>_xll.qlYieldTSDiscount(B8,C8,,Trigger)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="str">
+        <f>IF(ISERROR(C8),_xll.ohRangeRetrieveError(C8),_xll.ohRangeRetrieveError(E8))</f>
+        <v/>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="20" t="s">
@@ -1702,19 +1738,19 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="43">
-        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-1D","Preceding")</f>
+      <c r="B9" s="24"/>
+      <c r="C9" s="54">
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-2D","Preceding")</f>
         <v>41767</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="29" t="e">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="e">
         <f>_xll.qlIndexFixing(FirstIndex,C9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="15" t="str">
         <f ca="1">IF(ISERROR(C9),_xll.ohRangeRetrieveError(C9),_xll.ohRangeRetrieveError(E9))</f>
-        <v>qlIndexFixing - Missing GBPLibor3M Actual/365 (Fixed) fixing for May 8th, 2014</v>
+        <v/>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="22" t="s">
@@ -1741,15 +1777,12 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="27" t="str">
-        <f>PROPER(Currency)&amp;IF(UPPER(Currency)="EUR","",IF(UPPER(Currency)="HKD","H","L"))&amp;"ibor3M"</f>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="C10" s="43">
-        <f>EvaluationDate</f>
+      <c r="B10" s="27"/>
+      <c r="C10" s="42">
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-1D","Preceding")</f>
         <v>41768</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="29">
         <f>_xll.qlIndexFixing(FirstIndex,C10)</f>
         <v>5.2813000000000001E-3</v>
@@ -1783,19 +1816,22 @@
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="44">
-        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlIMMNextDate(_xll.qlIMMNextDate(EvaluationDate+1)+1),-_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
-        <v>41899</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="e">
-        <f>_xll.qlIndexFixing(FirstIndex,C11,TRUE)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F11" s="33" t="str">
-        <f ca="1">IF(ISERROR(C11),_xll.ohRangeRetrieveError(C11),_xll.ohRangeRetrieveError(E11))</f>
-        <v>qlIndexFixing - null term structure set to this instance of GBPLibor3M Actual/365 (Fixed)</v>
+      <c r="B11" s="27" t="str">
+        <f>PROPER(Currency)&amp;IF(UPPER(Currency)="EUR","",IF(UPPER(Currency)="HKD","H","L"))&amp;"ibor3M"</f>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="C11" s="42">
+        <f>EvaluationDate</f>
+        <v>41771</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
+        <f>_xll.qlIndexFixing(FirstIndex,C11)</f>
+        <v>5.2810000006973277E-3</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f>IF(ISERROR(C11),_xll.ohRangeRetrieveError(C11),_xll.ohRangeRetrieveError(E11))</f>
+        <v/>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="34" t="s">
@@ -1821,16 +1857,25 @@
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="43">
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlIMMNextDate(_xll.qlIMMNextDate(EvaluationDate+1)+1),-_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41899</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32">
+        <f>_xll.qlIndexFixing(FirstIndex,C12,TRUE)</f>
+        <v>7.3601491837369916E-3</v>
+      </c>
+      <c r="F12" s="33" t="str">
+        <f>IF(ISERROR(C12),_xll.ohRangeRetrieveError(C12),_xll.ohRangeRetrieveError(E12))</f>
+        <v/>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1845,17 +1890,17 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+    <row r="13" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2872,6 +2917,11 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>

--- a/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="20325" yWindow="-15" windowWidth="10215" windowHeight="8610"/>
+    <workbookView xWindow="20325" yWindow="45" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="MainChecks" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="AllTriggers">MainChecks!$I$5:$I$5</definedName>
     <definedName name="Currency">MainChecks!$B$1</definedName>
     <definedName name="EvaluationDate">MainChecks!$C$3</definedName>
-    <definedName name="FirstIndex">MainChecks!$B$11</definedName>
+    <definedName name="FirstIndex">MainChecks!$B$9</definedName>
     <definedName name="InterestRatesTrigger">MainChecks!$I$5</definedName>
     <definedName name="SecondIMMDate">MainChecks!$C$12</definedName>
     <definedName name="Trigger">MainChecks!$I$2</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ObjectID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>GBP</t>
+  </si>
+  <si>
+    <t>Access Denied: User req to PE(3153)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +188,14 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -587,6 +596,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -602,7 +622,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,7 +631,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,7 +670,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,7 +683,6 @@
     <xf numFmtId="166" fontId="6" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="6" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,6 +744,17 @@
     <xf numFmtId="167" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="1"/>
@@ -821,9 +849,9 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 18:28:49</v>
+        <v>Paused at 12:02:55</v>
         <stp/>
-        <stp>{346E5213-D98C-4DA8-99C2-EAACB8469A7B}</stp>
+        <stp>{F6A53E06-97F4-4BD0-8F86-60C6FA13A4E4}</stp>
         <tr r="I3" s="2"/>
       </tp>
     </main>
@@ -950,7 +978,6 @@
       <sheetName val="1M (2)"/>
       <sheetName val="3M (2)"/>
       <sheetName val="6M (2)"/>
-      <sheetName val="1Y (2)"/>
       <sheetName val="IBOR"/>
       <sheetName val="IB365"/>
       <sheetName val="SFIX2"/>
@@ -959,150 +986,185 @@
       <sheetName val="FwdOIS"/>
     </sheetNames>
     <definedNames>
-      <definedName name="TriggerCounter" refersTo="='General Settings'!$D$27"/>
+      <definedName name="TriggerCounter" refersTo="='General Settings'!$D$6"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="27">
-          <cell r="D27">
-            <v>42</v>
+        <row r="6">
+          <cell r="D6">
+            <v>131</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>6M</v>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Relinkable Handle</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>6L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>6L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>12L</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="6">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>GBPTND_Quote#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>GBP2x5F_Quote</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>J6</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>M7</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Future Code</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>H6</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Q4</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="11">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>OIS</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="13">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="6">
+          <cell r="D6">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="15">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>3L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>6L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="17">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>6L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="18">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>6L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="19">
-        <row r="27">
-          <cell r="D27" t="str">
+        <row r="6">
+          <cell r="D6" t="str">
             <v>3L</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="20">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>6L</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>GBP-SND=</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="21">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>-</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>GBP-SND=</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="22">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>-</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>GBP-3Y=</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="23">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>SFIXP</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>GBP-3Y=</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="24">
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>-</v>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>OIS</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="25">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1X</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1406,27 +1468,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="11" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="57" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1435,485 +1497,483 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+    </row>
+    <row r="2" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="40">
-        <v>41771.761736111112</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16" t="str">
+      <c r="I2" s="37"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+    </row>
+    <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="15" t="str">
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>GBPSTD</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <f>_xll.qlSettingsEvaluationDate(ISERROR(Trigger))</f>
-        <v>41771</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17">
         <f>_xll.qlYieldTSDiscount(B3,C3,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="18" t="str">
         <f>IF(ISERROR(C3),_xll.ohRangeRetrieveError(C3),_xll.ohRangeRetrieveError(E3))</f>
         <v/>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="45" t="str">
+      <c r="I3" s="42" t="str">
         <f>_xll.RData(H4,"LAST",,"FRQ:1S",,I4)</f>
-        <v>Updated at 18:28:49</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="16" t="str">
+        <v>Paused at 12:02:55</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+    </row>
+    <row r="4" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="15" t="str">
         <f>UPPER(Currency)&amp;"ON"</f>
         <v>GBPON</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="38">
         <f>EvaluationDate</f>
-        <v>41771</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17">
         <f>_xll.qlYieldTSDiscount(B4,C4,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="18" t="str">
         <f>IF(ISERROR(C4),_xll.ohRangeRetrieveError(C4),_xll.ohRangeRetrieveError(E4))</f>
         <v/>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="44">
-        <v>124.78125</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16" t="str">
+      <c r="I4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+    </row>
+    <row r="5" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="15" t="str">
         <f>UPPER(Currency)&amp;"1M"</f>
         <v>GBP1M</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="38">
         <f>EvaluationDate</f>
-        <v>41771</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17">
         <f>_xll.qlYieldTSDiscount(B5,C5,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="18" t="str">
         <f>IF(ISERROR(C5),_xll.ohRangeRetrieveError(C5),_xll.ohRangeRetrieveError(E5))</f>
         <v/>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <f>[1]!TriggerCounter</f>
-        <v>42</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16" t="str">
+        <v>131</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+    </row>
+    <row r="6" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="15" t="str">
         <f>UPPER(Currency)&amp;"3M"</f>
         <v>GBP3M</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="38">
         <f>EvaluationDate</f>
-        <v>41771</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17">
         <f>_xll.qlYieldTSDiscount(B6,C6,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="18" t="str">
         <f>IF(ISERROR(C6),_xll.ohRangeRetrieveError(C6),_xll.ohRangeRetrieveError(E6))</f>
         <v/>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>1383</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16" t="str">
+        <v>1453</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+    </row>
+    <row r="7" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="15" t="str">
         <f>UPPER(Currency)&amp;"6M"</f>
         <v>GBP6M</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="38">
         <f>EvaluationDate</f>
-        <v>41771</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
         <f>_xll.qlYieldTSDiscount(B7,C7,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="18" t="str">
         <f>IF(ISERROR(C7),_xll.ohRangeRetrieveError(C7),_xll.ohRangeRetrieveError(E7))</f>
         <v/>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27" t="str">
+      <c r="J7" s="13"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="25" t="str">
         <f>UPPER(Currency)&amp;"1Y"</f>
         <v>GBP1Y</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="52">
         <f>EvaluationDate</f>
-        <v>41771</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="18">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="17">
         <f>_xll.qlYieldTSDiscount(B8,C8,,Trigger)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="18" t="str">
         <f>IF(ISERROR(C8),_xll.ohRangeRetrieveError(C8),_xll.ohRangeRetrieveError(E8))</f>
         <v/>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f>_xll.qlFunctionCount(Trigger)+_xll.ohFunctionCount(Trigger)</f>
-        <v>1016</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="54">
+        <v>1017</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+    </row>
+    <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="53" t="str">
+        <f>PROPER(Currency)&amp;IF(UPPER(Currency)="EUR","",IF(UPPER(Currency)="HKD","H","L"))&amp;"ibor3M"</f>
+        <v>GbpLibor3M</v>
+      </c>
+      <c r="C9" s="51">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-2D","Preceding")</f>
-        <v>41767</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26" t="e">
+        <v>41816</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24">
         <f>_xll.qlIndexFixing(FirstIndex,C9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" s="15" t="str">
-        <f ca="1">IF(ISERROR(C9),_xll.ohRangeRetrieveError(C9),_xll.ohRangeRetrieveError(E9))</f>
+        <v>5.5219000000000006E-3</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f>IF(ISERROR(C9),_xll.ohRangeRetrieveError(C9),_xll.ohRangeRetrieveError(E9))</f>
         <v/>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="23" t="str">
+      <c r="I9" s="22" t="str">
         <f>_xll.ohBoostVersion(Trigger)</f>
         <v>1_52</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="42">
+      <c r="J9" s="13"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+    </row>
+    <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="39">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-1D","Preceding")</f>
-        <v>41768</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="29">
+        <v>41817</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="27">
         <f>_xll.qlIndexFixing(FirstIndex,C10)</f>
-        <v>5.2813000000000001E-3</v>
-      </c>
-      <c r="F10" s="19" t="str">
+        <v>5.5188000000000008E-3</v>
+      </c>
+      <c r="F10" s="18" t="str">
         <f>IF(ISERROR(C10),_xll.ohRangeRetrieveError(C10),_xll.ohRangeRetrieveError(E10))</f>
         <v/>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="22" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="23" t="str">
+      <c r="I10" s="22" t="str">
         <f>_xll.qlVersion(Trigger)</f>
-        <v>1.4.1</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="27" t="str">
-        <f>PROPER(Currency)&amp;IF(UPPER(Currency)="EUR","",IF(UPPER(Currency)="HKD","H","L"))&amp;"ibor3M"</f>
-        <v>GbpLibor3M</v>
-      </c>
-      <c r="C11" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+    </row>
+    <row r="11" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="39">
         <f>EvaluationDate</f>
-        <v>41771</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29">
+        <v>41820</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27">
         <f>_xll.qlIndexFixing(FirstIndex,C11)</f>
-        <v>5.2810000006973277E-3</v>
-      </c>
-      <c r="F11" s="19" t="str">
+        <v>5.5320000000008574E-3</v>
+      </c>
+      <c r="F11" s="18" t="str">
         <f>IF(ISERROR(C11),_xll.ohRangeRetrieveError(C11),_xll.ohRangeRetrieveError(E11))</f>
         <v/>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="34" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="35" t="str">
+      <c r="I11" s="32" t="str">
         <f>_xll.ohVersion(Trigger)</f>
-        <v>1.4.0</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="43">
+        <v>1.5.0</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+    </row>
+    <row r="12" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="40">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlIMMNextDate(_xll.qlIMMNextDate(EvaluationDate+1)+1),-_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
-        <v>41899</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32">
+        <v>41990</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
         <f>_xll.qlIndexFixing(FirstIndex,C12,TRUE)</f>
-        <v>7.3601491837369916E-3</v>
-      </c>
-      <c r="F12" s="33" t="str">
+        <v>8.4500000000004138E-3</v>
+      </c>
+      <c r="F12" s="30" t="str">
         <f>IF(ISERROR(C12),_xll.ohRangeRetrieveError(C12),_xll.ohRangeRetrieveError(E12))</f>
         <v/>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+    </row>
+    <row r="13" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -1926,19 +1986,19 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -1951,19 +2011,19 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -1976,19 +2036,19 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -2001,19 +2061,19 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -2026,19 +2086,19 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -2051,19 +2111,19 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -2076,19 +2136,19 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -2101,19 +2161,19 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -2126,19 +2186,19 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
@@ -2151,19 +2211,19 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
@@ -2176,19 +2236,19 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
@@ -2201,19 +2261,19 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -2226,19 +2286,19 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
@@ -2251,19 +2311,19 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -2276,19 +2336,19 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -2301,19 +2361,19 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
@@ -2326,19 +2386,19 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -2351,19 +2411,19 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
@@ -2376,19 +2436,19 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -2401,19 +2461,19 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -2426,19 +2486,19 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -2451,19 +2511,19 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -2476,19 +2536,19 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
@@ -2501,19 +2561,19 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
@@ -2526,19 +2586,19 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -2551,19 +2611,19 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2576,19 +2636,19 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -2601,19 +2661,19 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -2626,19 +2686,19 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -2651,19 +2711,19 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -2676,19 +2736,19 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -2701,19 +2761,19 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -2726,19 +2786,19 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -2751,19 +2811,19 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2776,243 +2836,299 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="56"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="56"/>
+      <c r="W59" s="56"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:B12"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -3027,7 +3143,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CommandButton2">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -3047,12 +3163,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="CommandButton1">
+        <control shapeId="1026" r:id="rId6" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -3072,7 +3188,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ObjectID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>Access Denied: User req to PE(3153)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -583,19 +580,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -738,23 +722,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="1"/>
@@ -849,9 +833,9 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 12:02:55</v>
+        <v>Updated at 09:41:10</v>
         <stp/>
-        <stp>{F6A53E06-97F4-4BD0-8F86-60C6FA13A4E4}</stp>
+        <stp>{3A9A8292-9017-4C47-B191-699DA060A336}</stp>
         <tr r="I3" s="2"/>
       </tp>
     </main>
@@ -992,7 +976,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>131</v>
+            <v>17</v>
           </cell>
         </row>
       </sheetData>
@@ -1468,17 +1452,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="11" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="57" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="57" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="57" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="2.7109375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="53" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="53" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1497,19 +1481,19 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -1532,19 +1516,19 @@
       </c>
       <c r="I2" s="37"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -1553,8 +1537,8 @@
         <v>GBPSTD</v>
       </c>
       <c r="C3" s="45">
-        <f>_xll.qlSettingsEvaluationDate(ISERROR(Trigger))</f>
-        <v>41820</v>
+        <f>_xll.qlCalendarAdjust(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlSettingsEvaluationDate(ISERROR(Trigger)),"f")</f>
+        <v>41822</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17">
@@ -1571,22 +1555,22 @@
       </c>
       <c r="I3" s="42" t="str">
         <f>_xll.RData(H4,"LAST",,"FRQ:1S",,I4)</f>
-        <v>Paused at 12:02:55</v>
+        <v>Updated at 09:41:10</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1596,7 +1580,7 @@
       </c>
       <c r="C4" s="38">
         <f>EvaluationDate</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17">
@@ -1611,23 +1595,23 @@
       <c r="H4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>16</v>
+      <c r="I4" s="41">
+        <v>124.953125</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="5" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1636,8 +1620,8 @@
         <v>GBP1M</v>
       </c>
       <c r="C5" s="38">
-        <f>EvaluationDate</f>
-        <v>41820</v>
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17">
@@ -1654,22 +1638,22 @@
       </c>
       <c r="I5" s="20">
         <f>[1]!TriggerCounter</f>
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1678,8 +1662,8 @@
         <v>GBP3M</v>
       </c>
       <c r="C6" s="38">
-        <f>EvaluationDate</f>
-        <v>41820</v>
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17">
@@ -1699,19 +1683,19 @@
         <v>1453</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1720,8 +1704,8 @@
         <v>GBP6M</v>
       </c>
       <c r="C7" s="38">
-        <f>EvaluationDate</f>
-        <v>41820</v>
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
@@ -1740,19 +1724,19 @@
         <v>6</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1760,9 +1744,9 @@
         <f>UPPER(Currency)&amp;"1Y"</f>
         <v>GBP1Y</v>
       </c>
-      <c r="C8" s="52">
-        <f>EvaluationDate</f>
-        <v>41820</v>
+      <c r="C8" s="51">
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="17">
@@ -1782,38 +1766,38 @@
         <v>1017</v>
       </c>
       <c r="J8" s="13"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="53" t="str">
+      <c r="B9" s="54" t="str">
         <f>PROPER(Currency)&amp;IF(UPPER(Currency)="EUR","",IF(UPPER(Currency)="HKD","H","L"))&amp;"ibor3M"</f>
         <v>GbpLibor3M</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="57">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-2D","Preceding")</f>
-        <v>41816</v>
+        <v>41820</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="24">
+      <c r="E9" s="24" t="e">
         <f>_xll.qlIndexFixing(FirstIndex,C9)</f>
-        <v>5.5219000000000006E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="F9" s="14" t="str">
-        <f>IF(ISERROR(C9),_xll.ohRangeRetrieveError(C9),_xll.ohRangeRetrieveError(E9))</f>
-        <v/>
+        <f ca="1">IF(ISERROR(C9),_xll.ohRangeRetrieveError(C9),_xll.ohRangeRetrieveError(E9))</f>
+        <v>qlIndexFixing - Missing GBPLibor3M Actual/365 (Fixed) fixing for June 30th, 2014</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="21" t="s">
@@ -1824,31 +1808,31 @@
         <v>1_52</v>
       </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="39">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-1D","Preceding")</f>
-        <v>41817</v>
+        <v>41821</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="27">
         <f>_xll.qlIndexFixing(FirstIndex,C10)</f>
-        <v>5.5188000000000008E-3</v>
+        <v>5.5438000000000006E-3</v>
       </c>
       <c r="F10" s="18" t="str">
         <f>IF(ISERROR(C10),_xll.ohRangeRetrieveError(C10),_xll.ohRangeRetrieveError(E10))</f>
@@ -1863,31 +1847,31 @@
         <v>1.5</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="39">
         <f>EvaluationDate</f>
-        <v>41820</v>
+        <v>41822</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="27">
         <f>_xll.qlIndexFixing(FirstIndex,C11)</f>
-        <v>5.5320000000008574E-3</v>
+        <v>5.5540000000008985E-3</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>IF(ISERROR(C11),_xll.ohRangeRetrieveError(C11),_xll.ohRangeRetrieveError(E11))</f>
@@ -1902,23 +1886,23 @@
         <v>1.5.0</v>
       </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="40">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlIMMNextDate(_xll.qlIMMNextDate(EvaluationDate+1)+1),-_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
         <v>41990</v>
@@ -1926,7 +1910,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29">
         <f>_xll.qlIndexFixing(FirstIndex,C12,TRUE)</f>
-        <v>8.4500000000004138E-3</v>
+        <v>8.8500000010900293E-3</v>
       </c>
       <c r="F12" s="30" t="str">
         <f>IF(ISERROR(C12),_xll.ohRangeRetrieveError(C12),_xll.ohRangeRetrieveError(E12))</f>
@@ -1936,19 +1920,19 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
@@ -1961,19 +1945,19 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -1986,19 +1970,19 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -2011,19 +1995,19 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -2036,19 +2020,19 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -2061,19 +2045,19 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -2086,19 +2070,19 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -2111,19 +2095,19 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -2136,19 +2120,19 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -2161,19 +2145,19 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
@@ -2186,19 +2170,19 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
@@ -2211,19 +2195,19 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
@@ -2236,19 +2220,19 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
@@ -2261,19 +2245,19 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -2286,19 +2270,19 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
@@ -2311,19 +2295,19 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -2336,19 +2320,19 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
@@ -2361,19 +2345,19 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
@@ -2386,19 +2370,19 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -2411,19 +2395,19 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
@@ -2436,19 +2420,19 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -2461,19 +2445,19 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
@@ -2486,19 +2470,19 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -2511,19 +2495,19 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
@@ -2536,19 +2520,19 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
@@ -2561,19 +2545,19 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
@@ -2586,19 +2570,19 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
@@ -2611,19 +2595,19 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2636,19 +2620,19 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -2661,19 +2645,19 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -2686,19 +2670,19 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -2711,19 +2695,19 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -2736,19 +2720,19 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="56"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="56"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -2761,19 +2745,19 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="56"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -2786,19 +2770,19 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -2811,19 +2795,19 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2836,294 +2820,294 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="56"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3143,7 +3127,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+        <control shapeId="1026" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -3163,12 +3147,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -3188,7 +3172,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
@@ -9,16 +9,13 @@
   <sheets>
     <sheet name="MainChecks" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">MainChecks!$U$4</definedName>
-    <definedName name="FirstIndex">MainChecks!$K$11</definedName>
+    <definedName name="FirstIndex">MainChecks!$K$10</definedName>
     <definedName name="FuturesDates">MainChecks!$C$14:$C$17</definedName>
     <definedName name="FuturesTable">MainChecks!$A$4:$H$12</definedName>
     <definedName name="IMMFutures">MainChecks!$D$14:$D$17</definedName>
-    <definedName name="InterestRatesTrigger">MainChecks!$Q$8</definedName>
+    <definedName name="InterestRatesTrigger">MainChecks!#REF!</definedName>
     <definedName name="TenYearsBondFutures">MainChecks!$C$4:$C$6</definedName>
     <definedName name="Trigger">MainChecks!$U$2</definedName>
   </definedNames>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>ObjectID</t>
   </si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>MarketData Checks</t>
-  </si>
-  <si>
-    <t># Mkt Updates</t>
   </si>
   <si>
     <t>Reference Date</t>
@@ -568,7 +562,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,12 +575,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,9 +603,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,15 +636,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,27 +775,27 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 13:01:24</v>
+        <v>Updated at 15:27:15</v>
         <stp/>
-        <stp>{74D2C7B1-3764-4404-B3AF-5FCCDCD58DDB}</stp>
+        <stp>{CB7227A2-45B4-4E93-A54C-9E91EB02E874}</stp>
         <tr r="Q7" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 13:01:18</v>
+        <v>Updated at 15:25:00</v>
         <stp/>
-        <stp>{942D897A-DEAA-41D7-B867-97ECEF961F33}</stp>
+        <stp>{651A286B-BAA1-4551-B911-BFADEDFE4F51}</stp>
         <tr r="Q6" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 13:01:24</v>
+        <v>Updated at 15:27:15</v>
         <stp/>
-        <stp>{90140B6D-E2B0-43C3-BE62-FAC4D49E8486}</stp>
+        <stp>{2C98B0D6-EBA3-4FC9-836F-3A9EFB80057A}</stp>
         <tr r="P7" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 13:01:23</v>
+        <v>Updated at 15:27:06</v>
         <stp/>
-        <stp>{0CB66668-4AB2-46B2-8BE0-CFF3741AFF0E}</stp>
+        <stp>{869F6F2B-951F-47B1-B62D-1E5078ADBAFA}</stp>
         <tr r="Q5" s="2"/>
       </tp>
     </main>
@@ -920,224 +896,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="General Settings"/>
-      <sheetName val="Libor"/>
-      <sheetName val="LiborSwapIsda"/>
-      <sheetName val="BasisSwap1MxM"/>
-      <sheetName val="BasisSwap3M6M"/>
-      <sheetName val="BasisSwapxM12M"/>
-      <sheetName val="Deposits"/>
-      <sheetName val="FRA"/>
-      <sheetName val="Futures1M"/>
-      <sheetName val="Futures3M"/>
-      <sheetName val="ImmFra6M "/>
-      <sheetName val="FuturesHWConvAdj"/>
-      <sheetName val="OIS"/>
-      <sheetName val="Swaps1M"/>
-      <sheetName val="SwapsIMMDated"/>
-      <sheetName val="Swap3M"/>
-      <sheetName val="Swap6M"/>
-      <sheetName val="1M (2)"/>
-      <sheetName val="3M (2)"/>
-      <sheetName val="6M (2)"/>
-      <sheetName val="IBOR"/>
-      <sheetName val="IB365"/>
-      <sheetName val="SFIX2"/>
-      <sheetName val="SFIX3"/>
-      <sheetName val="MPCOIS"/>
-      <sheetName val="FwdOIS"/>
-      <sheetName val="GBP_Market"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="TriggerCounter" refersTo="='General Settings'!$D$6"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="D6">
-            <v>19</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Relinkable Handle</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>12L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>GBPTND_Quote#0001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>GBP2x5F_Quote</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>U4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Future Code</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>Q4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>OIS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>X1S</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="6">
-          <cell r="D6">
-            <v>12</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>GBP-SND=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="21">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>GBP-SND=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>GBP-3Y=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>GBP-3Y=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>OIS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>1X</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="26" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,13 +1276,13 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1552,17 +1310,17 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1588,52 +1346,52 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="20" t="s">
+      <c r="L4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="S4" s="1"/>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="14" t="s">
-        <v>19</v>
+      <c r="U4" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1653,57 +1411,57 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>50</v>
+      <c r="F5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="28">
         <v>41890</v>
       </c>
-      <c r="M5" s="32">
-        <v>147.59</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33" t="str">
+      <c r="M5" s="29">
+        <v>150.34</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30" t="str">
         <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 13:01:23</v>
+        <v>Updated at 15:27:06</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="14" t="str">
-        <f>_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
-        <v>1_52 / 1.5.0 / 1.5</v>
+      <c r="U5" s="12" t="e">
+        <f ca="1">_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1723,57 +1481,57 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="28">
+      <c r="J6" s="21"/>
+      <c r="K6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="25">
         <v>42172</v>
       </c>
-      <c r="M6" s="34">
-        <v>98.73</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35" t="str">
+      <c r="M6" s="31">
+        <v>98.88</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32" t="str">
         <f>_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 13:01:18</v>
+        <v>Updated at 15:25:00</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="14">
-        <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>1606</v>
+      <c r="U6" s="12" t="e">
+        <f ca="1">_xll.ohRepositoryObjectCount(Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1793,56 +1551,56 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="F7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>52</v>
+      <c r="G7" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="27" t="str">
+      <c r="J7" s="21"/>
+      <c r="K7" s="24" t="str">
         <f>Currency&amp;VLOOKUP(Currency,FuturesTable,5,0)&amp;VLOOKUP(Currency,FuturesTable,6,0)&amp;"10Y"</f>
         <v>GBPSB6L10Y</v>
       </c>
-      <c r="L7" s="28">
-        <v>41834</v>
-      </c>
-      <c r="M7" s="40" t="str">
+      <c r="L7" s="25">
+        <v>41873</v>
+      </c>
+      <c r="M7" s="34" t="str">
         <f>N7&amp;"/"&amp;O7</f>
-        <v>2.689/2.739</v>
-      </c>
-      <c r="N7" s="34">
-        <v>2.6890000000000001</v>
-      </c>
-      <c r="O7" s="34">
-        <v>2.7390000000000003</v>
-      </c>
-      <c r="P7" s="34" t="str">
+        <v>2.5/2.55</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="O7" s="31">
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="P7" s="31" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 13:01:24</v>
-      </c>
-      <c r="Q7" s="35" t="str">
+        <v>Updated at 15:27:15</v>
+      </c>
+      <c r="Q7" s="32" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 13:01:24</v>
+        <v>Updated at 15:27:15</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1863,45 +1621,42 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38">
-        <f>[1]!TriggerCounter</f>
-        <v>19</v>
-      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1922,42 +1677,48 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="F9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>51</v>
+      <c r="G9" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
+      <c r="K9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="R9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1980,34 +1741,38 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="20" t="s">
+      <c r="K10" s="22" t="str">
+        <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
+        <v>GbpLibor6M</v>
+      </c>
+      <c r="L10" s="23" t="e">
+        <f ca="1">_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="35" t="e">
+        <f ca="1">IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2030,38 +1795,38 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="8"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="25" t="str">
-        <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
-        <v>GbpLibor6M</v>
-      </c>
-      <c r="L11" s="26">
-        <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>41831</v>
-      </c>
-      <c r="M11" s="39">
-        <f>_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>7.0937999999999999E-3</v>
-      </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="41" t="str">
-        <f>IF(AND(ISERROR(L11),ISERROR(M11)),_xll.ohRangeRetrieveError(L11)&amp;" "&amp;_xll.ohRangeRetrieveError(M11),IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11)))</f>
-        <v/>
+      <c r="K11" s="24" t="str">
+        <f>UPPER(Currency)&amp;"STD"</f>
+        <v>GBPSTD</v>
+      </c>
+      <c r="L11" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K11,L11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="36" t="e">
+        <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2083,47 +1848,47 @@
       <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="27" t="str">
-        <f>UPPER(Currency)&amp;"STD"</f>
-        <v>GBPSTD</v>
-      </c>
-      <c r="L12" s="28" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M12" s="29" t="e">
-        <f>_xll.qlYieldTSDiscount(K12,L12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="42" t="e">
+      <c r="K12" s="24" t="str">
+        <f>UPPER(Currency)&amp;"ON"</f>
+        <v>GBPON</v>
+      </c>
+      <c r="L12" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K12,L12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="36" t="e">
         <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
         <v>#NAME?</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2155,27 +1920,27 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="27" t="str">
-        <f>UPPER(Currency)&amp;"ON"</f>
-        <v>GBPON</v>
-      </c>
-      <c r="L13" s="28" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M13" s="29" t="e">
-        <f>_xll.qlYieldTSDiscount(K13,L13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="42" t="e">
+      <c r="K13" s="24" t="str">
+        <f>UPPER(Currency)&amp;"1M"</f>
+        <v>GBP1M</v>
+      </c>
+      <c r="L13" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M13" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K13,L13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="37" t="e">
         <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
         <v>#NAME?</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2201,13 +1966,13 @@
       <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="45">
-        <f t="array" ref="C14:C17">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
-        <v>41899</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f t="array" ref="D14:D17">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
-        <v>FSSU4</v>
+      <c r="C14" s="39" t="e">
+        <f t="array" aca="1" ref="C14:C17" ca="1">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f t="array" aca="1" ref="D14:D17" ca="1">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2215,27 +1980,27 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="27" t="str">
-        <f>UPPER(Currency)&amp;"1M"</f>
-        <v>GBP1M</v>
-      </c>
-      <c r="L14" s="28" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M14" s="29" t="e">
-        <f>_xll.qlYieldTSDiscount(K14,L14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="43" t="e">
+      <c r="K14" s="24" t="str">
+        <f>UPPER(Currency)&amp;"3M"</f>
+        <v>GBP3M</v>
+      </c>
+      <c r="L14" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M14" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K14,L14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="37" t="e">
         <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
         <v>#NAME?</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2258,14 +2023,16 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="48" t="b">
+      <c r="B15" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="46">
-        <v>41990</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <v>FSSZ4</v>
+      <c r="C15" s="40" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2273,27 +2040,27 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="27" t="str">
-        <f>UPPER(Currency)&amp;"3M"</f>
-        <v>GBP3M</v>
-      </c>
-      <c r="L15" s="28" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M15" s="29" t="e">
-        <f>_xll.qlYieldTSDiscount(K15,L15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="43" t="e">
+      <c r="K15" s="24" t="str">
+        <f>UPPER(Currency)&amp;"6M"</f>
+        <v>GBP6M</v>
+      </c>
+      <c r="L15" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M15" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K15,L15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="37" t="e">
         <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
         <v>#NAME?</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2316,14 +2083,16 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="48" t="b">
+      <c r="B16" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="46">
-        <v>42081</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <v>FSSH5</v>
+      <c r="C16" s="40" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2331,27 +2100,27 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="27" t="str">
-        <f>UPPER(Currency)&amp;"6M"</f>
-        <v>GBP6M</v>
-      </c>
-      <c r="L16" s="28" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M16" s="29" t="e">
-        <f>_xll.qlYieldTSDiscount(K16,L16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="43" t="e">
+      <c r="K16" s="46" t="str">
+        <f>UPPER(Currency)&amp;"1Y"</f>
+        <v>GBP1Y</v>
+      </c>
+      <c r="L16" s="47" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M16" s="48" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K16,L16)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49" t="e">
         <f ca="1">IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
         <v>#NAME?</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2374,42 +2143,32 @@
     </row>
     <row r="17" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="49" t="b">
+      <c r="B17" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="47">
-        <v>42172</v>
-      </c>
-      <c r="D17" s="11" t="str">
-        <v>FSSM5</v>
+      <c r="C17" s="41" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="52" t="str">
-        <f>UPPER(Currency)&amp;"1Y"</f>
-        <v>GBP1Y</v>
-      </c>
-      <c r="L17" s="53" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K17,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M17" s="54" t="e">
-        <f>_xll.qlYieldTSDiscount(K17,L17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55" t="e">
-        <f ca="1">IF(ISERROR(L17),_xll.ohRangeRetrieveError(L17),_xll.ohRangeRetrieveError(M17))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>14</v>
+      <c r="J17" s="9"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2430,7 +2189,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2440,17 +2199,15 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -3362,7 +3119,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="1"/>
@@ -3392,14 +3149,14 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -5586,8 +5343,18 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="1:36" s="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:36" s="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:36" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:36" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -5609,7 +5376,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CommandButton2">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5629,12 +5396,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="CommandButton1">
+        <control shapeId="1026" r:id="rId6" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5654,7 +5421,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>ObjectID</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>FSSM5</t>
+  </si>
+  <si>
+    <t>JGBc1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>TRHK</t>
+  </si>
+  <si>
+    <t>Shibor</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
     <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="172" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -257,6 +272,10 @@
       <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -549,7 +568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,8 +580,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,7 +593,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -653,7 +672,6 @@
     <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -661,9 +679,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -680,11 +695,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="1"/>
     <cellStyle name="Migliaia_AZIONI" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Normale_AZIONI" xfId="3"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
@@ -775,28 +806,28 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 15:27:15</v>
+        <v>Updated at 17:31:15</v>
         <stp/>
-        <stp>{CB7227A2-45B4-4E93-A54C-9E91EB02E874}</stp>
-        <tr r="Q7" s="2"/>
+        <stp>{2B911FD7-C0F1-4FEA-A7B9-7C651CD09A4C}</stp>
+        <tr r="Q5" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:25:00</v>
+        <v>Updated at 17:30:52</v>
         <stp/>
-        <stp>{651A286B-BAA1-4551-B911-BFADEDFE4F51}</stp>
+        <stp>{BE2EFEB2-3D36-49A6-8B66-358CFDE06EB5}</stp>
+        <tr r="P7" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:30:47</v>
+        <stp/>
+        <stp>{170EB86B-BB30-4FCD-9EE5-8DDCA9213CE7}</stp>
         <tr r="Q6" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:27:15</v>
+        <v>Updated at 17:30:52</v>
         <stp/>
-        <stp>{2C98B0D6-EBA3-4FC9-836F-3A9EFB80057A}</stp>
-        <tr r="P7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:27:06</v>
-        <stp/>
-        <stp>{869F6F2B-951F-47B1-B62D-1E5078ADBAFA}</stp>
-        <tr r="Q5" s="2"/>
+        <stp>{D9938D73-0AF6-4E5D-8D5B-9F8E61C00761}</stp>
+        <tr r="Q7" s="2"/>
       </tp>
     </main>
   </volType>
@@ -1279,10 +1310,10 @@
         <v>13</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="19"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1310,15 +1341,15 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1342,55 +1373,55 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="50" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="1"/>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="V4" s="1"/>
@@ -1410,56 +1441,57 @@
       <c r="AJ4" s="3"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="53" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="28">
-        <v>41890</v>
-      </c>
-      <c r="M5" s="29">
-        <v>150.34</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30" t="str">
+      <c r="K5" s="26" t="str">
+        <f>VLOOKUP(Currency,FuturesTable,3,0)</f>
+        <v>FLGc1</v>
+      </c>
+      <c r="L5" s="27">
+        <v>42002</v>
+      </c>
+      <c r="M5" s="28">
+        <v>114.59</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29" t="str">
         <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 15:27:06</v>
+        <v>Updated at 17:31:15</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="12" t="e">
+      <c r="U5" s="11" t="e">
         <f ca="1">_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
         <v>#NAME?</v>
       </c>
@@ -1480,56 +1512,56 @@
       <c r="AJ5" s="3"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="53" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <v>42172</v>
       </c>
-      <c r="M6" s="31">
-        <v>98.88</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32" t="str">
+      <c r="M6" s="30">
+        <v>99.070000000000007</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31" t="str">
         <f>_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 15:25:00</v>
+        <v>Updated at 17:30:47</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="12" t="e">
+      <c r="U6" s="11" t="e">
         <f ca="1">_xll.ohRepositoryObjectCount(Trigger)</f>
         <v>#NAME?</v>
       </c>
@@ -1550,54 +1582,56 @@
       <c r="AJ6" s="3"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="53" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="24" t="str">
+      <c r="J7" s="20"/>
+      <c r="K7" s="23" t="str">
         <f>Currency&amp;VLOOKUP(Currency,FuturesTable,5,0)&amp;VLOOKUP(Currency,FuturesTable,6,0)&amp;"10Y"</f>
         <v>GBPSB6L10Y</v>
       </c>
-      <c r="L7" s="25">
-        <v>41873</v>
-      </c>
-      <c r="M7" s="34" t="str">
+      <c r="L7" s="24">
+        <v>41919</v>
+      </c>
+      <c r="M7" s="33" t="str">
         <f>N7&amp;"/"&amp;O7</f>
-        <v>2.5/2.55</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="O7" s="31">
-        <v>2.5500000000000003</v>
-      </c>
-      <c r="P7" s="31" t="str">
+        <v>2.327/2.377</v>
+      </c>
+      <c r="N7" s="30">
+        <v>2.3270000000000004</v>
+      </c>
+      <c r="O7" s="30">
+        <v>2.3770000000000002</v>
+      </c>
+      <c r="P7" s="30" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 15:27:15</v>
-      </c>
-      <c r="Q7" s="32" t="str">
+        <v>Updated at 17:30:52</v>
+      </c>
+      <c r="Q7" s="31" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 15:27:15</v>
+        <v>Updated at 17:30:52</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>13</v>
@@ -1622,39 +1656,41 @@
       <c r="AJ7" s="3"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="53" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1678,43 +1714,45 @@
       <c r="AJ8" s="3"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="53" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="18" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R9" s="8" t="s">
@@ -1740,34 +1778,48 @@
       <c r="AJ9" s="3"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>57</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="21" t="str">
         <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
         <v>GbpLibor6M</v>
       </c>
-      <c r="L10" s="23" t="e">
+      <c r="L10" s="22" t="e">
         <f ca="1">_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M10" s="33" t="e">
+      <c r="M10" s="32" t="e">
         <f ca="1">_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="35" t="e">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="34" t="e">
         <f ca="1">IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
         <v>#NAME?</v>
       </c>
@@ -1794,34 +1846,48 @@
       <c r="AJ10" s="3"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>37</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="24" t="str">
+      <c r="K11" s="23" t="str">
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>GBPSTD</v>
       </c>
-      <c r="L11" s="25" t="e">
+      <c r="L11" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="26" t="e">
+      <c r="M11" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K11,L11)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="36" t="e">
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="35" t="e">
         <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
         <v>#NAME?</v>
       </c>
@@ -1848,42 +1914,42 @@
       <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="24" t="str">
+      <c r="K12" s="23" t="str">
         <f>UPPER(Currency)&amp;"ON"</f>
         <v>GBPON</v>
       </c>
-      <c r="L12" s="25" t="e">
+      <c r="L12" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M12" s="26" t="e">
+      <c r="M12" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K12,L12)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="36" t="e">
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="35" t="e">
         <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
         <v>#NAME?</v>
       </c>
@@ -1920,22 +1986,22 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="24" t="str">
+      <c r="K13" s="23" t="str">
         <f>UPPER(Currency)&amp;"1M"</f>
         <v>GBP1M</v>
       </c>
-      <c r="L13" s="25" t="e">
+      <c r="L13" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="26" t="e">
+      <c r="M13" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K13,L13)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="37" t="e">
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="36" t="e">
         <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
         <v>#NAME?</v>
       </c>
@@ -1966,7 +2032,7 @@
       <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="e">
+      <c r="C14" s="37" t="e">
         <f t="array" aca="1" ref="C14:C17" ca="1">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
         <v>#NAME?</v>
       </c>
@@ -1980,22 +2046,22 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="23" t="str">
         <f>UPPER(Currency)&amp;"3M"</f>
         <v>GBP3M</v>
       </c>
-      <c r="L14" s="25" t="e">
+      <c r="L14" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="26" t="e">
+      <c r="M14" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K14,L14)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="37" t="e">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="36" t="e">
         <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
         <v>#NAME?</v>
       </c>
@@ -2023,10 +2089,10 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="42" t="b">
+      <c r="B15" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="40" t="e">
+      <c r="C15" s="38" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -2040,22 +2106,22 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="24" t="str">
+      <c r="K15" s="23" t="str">
         <f>UPPER(Currency)&amp;"6M"</f>
         <v>GBP6M</v>
       </c>
-      <c r="L15" s="25" t="e">
+      <c r="L15" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M15" s="26" t="e">
+      <c r="M15" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K15,L15)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="37" t="e">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="36" t="e">
         <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
         <v>#NAME?</v>
       </c>
@@ -2083,10 +2149,10 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="42" t="b">
+      <c r="B16" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="40" t="e">
+      <c r="C16" s="38" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -2100,22 +2166,22 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="46" t="str">
+      <c r="K16" s="43" t="str">
         <f>UPPER(Currency)&amp;"1Y"</f>
         <v>GBP1Y</v>
       </c>
-      <c r="L16" s="47" t="e">
+      <c r="L16" s="44" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="48" t="e">
+      <c r="M16" s="45" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K16,L16)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49" t="e">
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46" t="e">
         <f ca="1">IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
         <v>#NAME?</v>
       </c>
@@ -2143,14 +2209,14 @@
     </row>
     <row r="17" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="b">
+      <c r="B17" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="41" t="e">
+      <c r="C17" s="39" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="11" t="e">
+      <c r="D17" s="10" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -2160,14 +2226,14 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="11" t="s">
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="S17" s="1"/>
@@ -5343,8 +5409,8 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="1:36" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:36" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" s="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:36" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -5357,12 +5423,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
       <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH,HKD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>TenYearsBondFutures</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
       <formula1>IMMFutures</formula1>
@@ -5376,7 +5439,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+        <control shapeId="1026" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5396,12 +5459,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5421,7 +5484,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_MainChecks.xlsx
@@ -276,6 +276,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -582,7 +583,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,6 +711,9 @@
     <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="1"/>
@@ -806,28 +810,34 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 17:31:15</v>
+        <v>Updated at 11:26:11</v>
         <stp/>
-        <stp>{2B911FD7-C0F1-4FEA-A7B9-7C651CD09A4C}</stp>
+        <stp>{4C473E17-AB62-4D1E-A30E-FEEB42EFAF5F}</stp>
+        <tr r="Q6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:22:03</v>
+        <stp/>
+        <stp>{E2282FA0-CD62-4B95-A250-73EDB77D9EFC}</stp>
+        <tr r="Q7" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:26:57</v>
+        <stp/>
+        <stp>{DFAF9D8F-904D-46C0-9ED9-350D957991D8}</stp>
+        <tr r="P5" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:24:00</v>
+        <stp/>
+        <stp>{6E9F85D6-AAEC-43B6-98F0-E929F336C91D}</stp>
         <tr r="Q5" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:30:52</v>
+        <v>Updated at 11:26:34</v>
         <stp/>
-        <stp>{BE2EFEB2-3D36-49A6-8B66-358CFDE06EB5}</stp>
+        <stp>{0B383ECD-58AA-4CC9-9CBA-60D0C3D0D148}</stp>
         <tr r="P7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:30:47</v>
-        <stp/>
-        <stp>{170EB86B-BB30-4FCD-9EE5-8DDCA9213CE7}</stp>
-        <tr r="Q6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:30:52</v>
-        <stp/>
-        <stp>{D9938D73-0AF6-4E5D-8D5B-9F8E61C00761}</stp>
-        <tr r="Q7" s="2"/>
       </tp>
     </main>
   </volType>
@@ -1239,8 +1249,8 @@
     <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="20.28515625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="2" style="2" bestFit="1" customWidth="1"/>
@@ -1474,15 +1484,23 @@
       <c r="L5" s="27">
         <v>42002</v>
       </c>
-      <c r="M5" s="28">
-        <v>114.59</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="M5" s="59" t="str">
+        <f>N5&amp;"/"&amp;O5</f>
+        <v>118.79/118.81</v>
+      </c>
+      <c r="N5" s="28">
+        <v>118.79</v>
+      </c>
+      <c r="O5" s="28">
+        <v>118.81</v>
+      </c>
+      <c r="P5" s="28" t="str">
+        <f>_xll.RData(K5,{"BID","ASK"},,"FRQ:1S",,N5)</f>
+        <v>Updated at 11:26:57</v>
+      </c>
       <c r="Q5" s="29" t="str">
-        <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 17:31:15</v>
+        <f>_xll.RData(K5,"EXPIR_DATE",,"FRQ:1S",,L5)</f>
+        <v>Updated at 11:24:00</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>13</v>
@@ -1491,9 +1509,9 @@
       <c r="T5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="11" t="e">
-        <f ca="1">_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
-        <v>#NAME?</v>
+      <c r="U5" s="11" t="str">
+        <f>_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
+        <v>1_52 / 1.5.0 / 1.5</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1545,14 +1563,14 @@
         <v>42172</v>
       </c>
       <c r="M6" s="30">
-        <v>99.070000000000007</v>
+        <v>99.32</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="31" t="str">
         <f>_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 17:30:47</v>
+        <v>Updated at 11:26:11</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>13</v>
@@ -1561,9 +1579,9 @@
       <c r="T6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="11" t="e">
-        <f ca="1">_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>#NAME?</v>
+      <c r="U6" s="11">
+        <f>_xll.ohRepositoryObjectCount(Trigger)</f>
+        <v>1599</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1613,25 +1631,25 @@
         <v>GBPSB6L10Y</v>
       </c>
       <c r="L7" s="24">
-        <v>41919</v>
+        <v>41983</v>
       </c>
       <c r="M7" s="33" t="str">
         <f>N7&amp;"/"&amp;O7</f>
-        <v>2.327/2.377</v>
+        <v>1.977/2.027</v>
       </c>
       <c r="N7" s="30">
-        <v>2.3270000000000004</v>
+        <v>1.9769999999999999</v>
       </c>
       <c r="O7" s="30">
-        <v>2.3770000000000002</v>
+        <v>2.0270000000000001</v>
       </c>
       <c r="P7" s="30" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 17:30:52</v>
+        <v>Updated at 11:26:34</v>
       </c>
       <c r="Q7" s="31" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 17:30:52</v>
+        <v>Updated at 11:22:03</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>13</v>
@@ -1808,20 +1826,20 @@
         <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
         <v>GbpLibor6M</v>
       </c>
-      <c r="L10" s="22" t="e">
-        <f ca="1">_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M10" s="32" t="e">
-        <f ca="1">_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>#NAME?</v>
+      <c r="L10" s="22">
+        <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>41982</v>
+      </c>
+      <c r="M10" s="32">
+        <f>_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>6.7843999999999995E-3</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="Q10" s="34" t="e">
-        <f ca="1">IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
-        <v>#NAME?</v>
+      <c r="Q10" s="34" t="str">
+        <f>IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
+        <v/>
       </c>
       <c r="R10" s="8" t="s">
         <v>13</v>
@@ -1876,20 +1894,20 @@
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>GBPSTD</v>
       </c>
-      <c r="L11" s="24" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M11" s="25" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(K11,L11)</f>
-        <v>#NAME?</v>
+      <c r="L11" s="24">
+        <f>_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
+        <v>41983</v>
+      </c>
+      <c r="M11" s="25">
+        <f>_xll.qlYieldTSDiscount(K11,L11)</f>
+        <v>1</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="35" t="e">
-        <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
-        <v>#NAME?</v>
+      <c r="Q11" s="35" t="str">
+        <f>IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
+        <v/>
       </c>
       <c r="R11" s="8" t="s">
         <v>13</v>
@@ -1938,20 +1956,20 @@
         <f>UPPER(Currency)&amp;"ON"</f>
         <v>GBPON</v>
       </c>
-      <c r="L12" s="24" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M12" s="25" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(K12,L12)</f>
-        <v>#NAME?</v>
+      <c r="L12" s="24">
+        <f>_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
+        <v>41983</v>
+      </c>
+      <c r="M12" s="25">
+        <f>_xll.qlYieldTSDiscount(K12,L12)</f>
+        <v>1</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="35" t="e">
-        <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
-        <v>#NAME?</v>
+      <c r="Q12" s="35" t="str">
+        <f>IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
+        <v/>
       </c>
       <c r="R12" s="8" t="s">
         <v>13</v>
@@ -1990,20 +2008,20 @@
         <f>UPPER(Currency)&amp;"1M"</f>
         <v>GBP1M</v>
       </c>
-      <c r="L13" s="24" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M13" s="25" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(K13,L13)</f>
-        <v>#NAME?</v>
+      <c r="L13" s="24">
+        <f>_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
+        <v>41983</v>
+      </c>
+      <c r="M13" s="25">
+        <f>_xll.qlYieldTSDiscount(K13,L13)</f>
+        <v>1</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="36" t="e">
-        <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
-        <v>#NAME?</v>
+      <c r="Q13" s="36" t="str">
+        <f>IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
+        <v/>
       </c>
       <c r="R13" s="8" t="s">
         <v>13</v>
@@ -2032,13 +2050,13 @@
       <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="37" t="e">
-        <f t="array" aca="1" ref="C14:C17" ca="1">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="6" t="e">
-        <f t="array" aca="1" ref="D14:D17" ca="1">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
-        <v>#NAME?</v>
+      <c r="C14" s="37">
+        <f t="array" ref="C14:C17">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
+        <v>41990</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="array" ref="D14:D17">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
+        <v>FSSZ4</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2050,20 +2068,20 @@
         <f>UPPER(Currency)&amp;"3M"</f>
         <v>GBP3M</v>
       </c>
-      <c r="L14" s="24" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M14" s="25" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(K14,L14)</f>
-        <v>#NAME?</v>
+      <c r="L14" s="24">
+        <f>_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
+        <v>41983</v>
+      </c>
+      <c r="M14" s="25">
+        <f>_xll.qlYieldTSDiscount(K14,L14)</f>
+        <v>1</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="36" t="e">
-        <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
-        <v>#NAME?</v>
+      <c r="Q14" s="36" t="str">
+        <f>IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
+        <v/>
       </c>
       <c r="R14" s="8" t="s">
         <v>13</v>
@@ -2092,13 +2110,11 @@
       <c r="B15" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="38" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D15" s="8" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="C15" s="38">
+        <v>42081</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <v>FSSH5</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2110,20 +2126,20 @@
         <f>UPPER(Currency)&amp;"6M"</f>
         <v>GBP6M</v>
       </c>
-      <c r="L15" s="24" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M15" s="25" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(K15,L15)</f>
-        <v>#NAME?</v>
+      <c r="L15" s="24">
+        <f>_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
+        <v>41983</v>
+      </c>
+      <c r="M15" s="25">
+        <f>_xll.qlYieldTSDiscount(K15,L15)</f>
+        <v>1</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="36" t="e">
-        <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
-        <v>#NAME?</v>
+      <c r="Q15" s="36" t="str">
+        <f>IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
+        <v/>
       </c>
       <c r="R15" s="8" t="s">
         <v>13</v>
@@ -2152,13 +2168,11 @@
       <c r="B16" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="38" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D16" s="8" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="C16" s="38">
+        <v>42172</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <v>FSSM5</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2170,20 +2184,20 @@
         <f>UPPER(Currency)&amp;"1Y"</f>
         <v>GBP1Y</v>
       </c>
-      <c r="L16" s="44" t="e">
-        <f ca="1">_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M16" s="45" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(K16,L16)</f>
-        <v>#NAME?</v>
+      <c r="L16" s="44">
+        <f>_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
+        <v>41983</v>
+      </c>
+      <c r="M16" s="45">
+        <f>_xll.qlYieldTSDiscount(K16,L16)</f>
+        <v>1</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="46" t="e">
-        <f ca="1">IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
-        <v>#NAME?</v>
+      <c r="Q16" s="46" t="str">
+        <f>IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
+        <v/>
       </c>
       <c r="R16" s="8" t="s">
         <v>13</v>
@@ -2212,13 +2226,11 @@
       <c r="B17" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="39" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="D17" s="10" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="C17" s="39">
+        <v>42263</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <v>FSSU5</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5439,7 +5451,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CommandButton2">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5459,12 +5471,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="CommandButton1">
+        <control shapeId="1026" r:id="rId6" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5484,7 +5496,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
